--- a/biology/Biochimie/Caséine_gamma/Caséine_gamma.xlsx
+++ b/biology/Biochimie/Caséine_gamma/Caséine_gamma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cas%C3%A9ine_gamma</t>
+          <t>Caséine_gamma</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Une caséine γ est une protéine du lait de vache correspondant à la partie C-terminale issue du clivage de la caséine β par des protéases. Elles représentent de 3 à 5 % des caséines, soit de 1 à 2 g/L de lait. On distingue[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Une caséine γ est une protéine du lait de vache correspondant à la partie C-terminale issue du clivage de la caséine β par des protéases. Elles représentent de 3 à 5 % des caséines, soit de 1 à 2 g/L de lait. On distingue :
 la caséine γ1, de 181 acides aminés, issue de l'action d'une protéase entre les résidus de lysine 28 et 29 ;
 la caséine γ2, de 104 acides aminés, issue de l'action d'une protéase entre les résidus de lysine 105 et d'histidine 106 ;
 la caséine γ3, de 102 acides aminés, issue de l'action d'une protéase entre les résidus de lysine 107 et de glutamate 108.</t>
